--- a/R/analysis/data/Pt_09_Control.xlsx
+++ b/R/analysis/data/Pt_09_Control.xlsx
@@ -521,10 +521,10 @@
         <v>2.25</v>
       </c>
       <c r="M2" t="n">
-        <v>2.45</v>
+        <v>1.73</v>
       </c>
       <c r="N2" t="n">
-        <v>-2</v>
+        <v>2.5</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -578,7 +578,7 @@
         <v>1.17</v>
       </c>
       <c r="L3" t="n">
-        <v>-4.83</v>
+        <v>4.83</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -635,16 +635,16 @@
         <v>3.13</v>
       </c>
       <c r="K4" t="n">
-        <v>5.01</v>
+        <v>1.82</v>
       </c>
       <c r="L4" t="n">
-        <v>-1.29</v>
+        <v>3.54</v>
       </c>
       <c r="M4" t="n">
-        <v>2.83</v>
+        <v>0.35</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>2.65</v>
       </c>
       <c r="N5" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>1.03</v>
       </c>
       <c r="L6" t="n">
-        <v>-3.33</v>
+        <v>3.33</v>
       </c>
       <c r="M6" t="n">
         <v>1.41</v>
@@ -815,16 +815,16 @@
         <v>1.21</v>
       </c>
       <c r="K7" t="n">
-        <v>4.19</v>
+        <v>0.52</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.36</v>
+        <v>2.96</v>
       </c>
       <c r="M7" t="n">
-        <v>3.54</v>
+        <v>0.71</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.5</v>
+        <v>2.5</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -884,7 +884,7 @@
         <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>-3.2</v>
+        <v>3.2</v>
       </c>
       <c r="O8" t="n">
         <v>0.35</v>
@@ -936,7 +936,7 @@
         <v>0.95</v>
       </c>
       <c r="L9" t="n">
-        <v>-3.29</v>
+        <v>3.29</v>
       </c>
       <c r="M9"/>
       <c r="N9" t="n">
@@ -991,16 +991,16 @@
         <v>0.66</v>
       </c>
       <c r="K10" t="n">
-        <v>3.97</v>
+        <v>0.68</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.48</v>
+        <v>2.81</v>
       </c>
       <c r="M10" t="n">
-        <v>5.09</v>
+        <v>0.57</v>
       </c>
       <c r="N10" t="n">
-        <v>0.4</v>
+        <v>3.6</v>
       </c>
       <c r="O10" t="n">
         <v>0.08</v>
@@ -1060,7 +1060,7 @@
         <v>1.41</v>
       </c>
       <c r="N11" t="n">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="O11" t="n">
         <v>0.35</v>
@@ -1114,7 +1114,7 @@
         <v>1.29</v>
       </c>
       <c r="L12" t="n">
-        <v>-2.5</v>
+        <v>2.5</v>
       </c>
       <c r="M12" t="n">
         <v>1.41</v>
@@ -1171,16 +1171,16 @@
         <v>2.07</v>
       </c>
       <c r="K13" t="n">
-        <v>4.07</v>
+        <v>0.53</v>
       </c>
       <c r="L13" t="n">
-        <v>0.38</v>
+        <v>2.88</v>
       </c>
       <c r="M13" t="n">
-        <v>4.95</v>
+        <v>0.71</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.5</v>
+        <v>3.5</v>
       </c>
       <c r="O13" t="n">
         <v>0.08</v>
@@ -1236,7 +1236,7 @@
       </c>
       <c r="M14"/>
       <c r="N14" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         <v>1.53</v>
       </c>
       <c r="L15" t="n">
-        <v>-3.33</v>
+        <v>3.33</v>
       </c>
       <c r="M15" t="n">
         <v>1.3</v>
@@ -1347,16 +1347,16 @@
         <v>1.35</v>
       </c>
       <c r="K16" t="n">
-        <v>4.68</v>
+        <v>0.03</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.02</v>
+        <v>3.31</v>
       </c>
       <c r="M16" t="n">
-        <v>4.1</v>
+        <v>0.14</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.1</v>
+        <v>2.9</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -1416,7 +1416,7 @@
         <v>1.53</v>
       </c>
       <c r="N17" t="n">
-        <v>-2.67</v>
+        <v>2.67</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>1.15</v>
       </c>
       <c r="L18" t="n">
-        <v>-3.67</v>
+        <v>3.67</v>
       </c>
       <c r="M18" t="n">
         <v>1.3</v>
@@ -1527,16 +1527,16 @@
         <v>0.86</v>
       </c>
       <c r="K19" t="n">
-        <v>4.86</v>
+        <v>0.33</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.23</v>
+        <v>3.44</v>
       </c>
       <c r="M19" t="n">
-        <v>3.87</v>
+        <v>0.09</v>
       </c>
       <c r="N19" t="n">
-        <v>0.06</v>
+        <v>2.73</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0.58</v>
       </c>
       <c r="N20" t="n">
-        <v>-2.67</v>
+        <v>2.67</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -1650,7 +1650,7 @@
         <v>1.14</v>
       </c>
       <c r="L21" t="n">
-        <v>-3.4</v>
+        <v>3.4</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
@@ -1707,16 +1707,16 @@
         <v>2.23</v>
       </c>
       <c r="K22" t="n">
-        <v>5.09</v>
+        <v>0.28</v>
       </c>
       <c r="L22" t="n">
-        <v>0.2</v>
+        <v>3.6</v>
       </c>
       <c r="M22" t="n">
-        <v>4.01</v>
+        <v>0.23</v>
       </c>
       <c r="N22" t="n">
-        <v>0.17</v>
+        <v>2.84</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -1776,7 +1776,7 @@
         <v>0.58</v>
       </c>
       <c r="N23" t="n">
-        <v>-3.67</v>
+        <v>3.67</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>0.58</v>
       </c>
       <c r="L24" t="n">
-        <v>-2.33</v>
+        <v>2.33</v>
       </c>
       <c r="M24" t="n">
         <v>0.71</v>
@@ -1887,16 +1887,16 @@
         <v>0.48</v>
       </c>
       <c r="K25" t="n">
-        <v>3.91</v>
+        <v>0.62</v>
       </c>
       <c r="L25" t="n">
-        <v>0.44</v>
+        <v>2.77</v>
       </c>
       <c r="M25" t="n">
-        <v>4.72</v>
+        <v>0.47</v>
       </c>
       <c r="N25" t="n">
-        <v>-0.33</v>
+        <v>3.34</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -1956,7 +1956,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -2010,7 +2010,7 @@
         <v>1.53</v>
       </c>
       <c r="L27" t="n">
-        <v>-4.33</v>
+        <v>4.33</v>
       </c>
       <c r="M27" t="n">
         <v>0.84</v>
@@ -2067,16 +2067,16 @@
         <v>0.86</v>
       </c>
       <c r="K28" t="n">
-        <v>4.71</v>
+        <v>1.41</v>
       </c>
       <c r="L28" t="n">
-        <v>-1</v>
+        <v>3.33</v>
       </c>
       <c r="M28" t="n">
-        <v>4.38</v>
+        <v>1.27</v>
       </c>
       <c r="N28" t="n">
-        <v>-0.9</v>
+        <v>3.1</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
